--- a/Code/Results/Cases/Case_2_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_210/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9997386297435952</v>
+        <v>1.022545013070072</v>
       </c>
       <c r="D2">
-        <v>1.018007698431032</v>
+        <v>1.028534243023331</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9765800400158223</v>
+        <v>1.020994917831002</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043316691313692</v>
+        <v>1.032211687326401</v>
       </c>
       <c r="J2">
-        <v>1.021927161162411</v>
+        <v>1.027730249084565</v>
       </c>
       <c r="K2">
-        <v>1.029221730929073</v>
+        <v>1.031350780310421</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9883755908544655</v>
+        <v>1.023833557202326</v>
       </c>
       <c r="N2">
-        <v>1.011354019026325</v>
+        <v>1.01332284287209</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003681577876201</v>
+        <v>1.02334415576611</v>
       </c>
       <c r="D3">
-        <v>1.020920355969302</v>
+        <v>1.029136085777268</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9831743595782084</v>
+        <v>1.02242941244794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044559900929693</v>
+        <v>1.032394726607857</v>
       </c>
       <c r="J3">
-        <v>1.024072380049944</v>
+        <v>1.02816826774634</v>
       </c>
       <c r="K3">
-        <v>1.031292375558852</v>
+        <v>1.031761134877081</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.994027152790284</v>
+        <v>1.025072689561317</v>
       </c>
       <c r="N3">
-        <v>1.012061378963445</v>
+        <v>1.013467209998588</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006177044341067</v>
+        <v>1.023861143223613</v>
       </c>
       <c r="D4">
-        <v>1.022764643629055</v>
+        <v>1.029525282048165</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9873373891143991</v>
+        <v>1.023357568558902</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04533429111465</v>
+        <v>1.032511655339756</v>
       </c>
       <c r="J4">
-        <v>1.025424049746876</v>
+        <v>1.028450929776744</v>
       </c>
       <c r="K4">
-        <v>1.032595868877878</v>
+        <v>1.032025731677615</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9975910820037788</v>
+        <v>1.025873930793942</v>
       </c>
       <c r="N4">
-        <v>1.012507106716769</v>
+        <v>1.013560366477664</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007213228072691</v>
+        <v>1.024078457364732</v>
       </c>
       <c r="D5">
-        <v>1.023530615018441</v>
+        <v>1.029688842548306</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9890638393299618</v>
+        <v>1.023747755107751</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045652824796403</v>
+        <v>1.032560450303047</v>
       </c>
       <c r="J5">
-        <v>1.025983845029653</v>
+        <v>1.028569577245361</v>
       </c>
       <c r="K5">
-        <v>1.033135409868065</v>
+        <v>1.032136744911038</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9990681066160377</v>
+        <v>1.026210641441592</v>
       </c>
       <c r="N5">
-        <v>1.012691711683642</v>
+        <v>1.013599467367713</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007386463943375</v>
+        <v>1.024114943737732</v>
       </c>
       <c r="D6">
-        <v>1.023658684204492</v>
+        <v>1.029716301666686</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9893523621209256</v>
+        <v>1.023813268646867</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045705901210903</v>
+        <v>1.032568621959934</v>
       </c>
       <c r="J6">
-        <v>1.026077349489825</v>
+        <v>1.028589487895653</v>
       </c>
       <c r="K6">
-        <v>1.033225512940346</v>
+        <v>1.032155371411488</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9993148876196588</v>
+        <v>1.026267169035239</v>
       </c>
       <c r="N6">
-        <v>1.012722547208433</v>
+        <v>1.013606028933334</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006190940006263</v>
+        <v>1.023864047094348</v>
       </c>
       <c r="D7">
-        <v>1.022774914992455</v>
+        <v>1.029527467779295</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9873605495808819</v>
+        <v>1.023362782286622</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045338574737811</v>
+        <v>1.03251230876287</v>
       </c>
       <c r="J7">
-        <v>1.025431562596227</v>
+        <v>1.028452515872188</v>
       </c>
       <c r="K7">
-        <v>1.032603111117049</v>
+        <v>1.032027215919913</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.997610900288772</v>
+        <v>1.02587843044981</v>
       </c>
       <c r="N7">
-        <v>1.012509584222309</v>
+        <v>1.01356088918986</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001083029465855</v>
+        <v>1.022815109689144</v>
       </c>
       <c r="D8">
-        <v>1.019000597644764</v>
+        <v>1.028737686880995</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9788308878540737</v>
+        <v>1.021479726123447</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043743169984497</v>
+        <v>1.032273858710341</v>
       </c>
       <c r="J8">
-        <v>1.022659861919989</v>
+        <v>1.027878437754653</v>
       </c>
       <c r="K8">
-        <v>1.02992920053557</v>
+        <v>1.031489653766051</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9903054544581864</v>
+        <v>1.024252445574596</v>
       </c>
       <c r="N8">
-        <v>1.011595611036419</v>
+        <v>1.013371685889979</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9916317306023155</v>
+        <v>1.020965927602569</v>
       </c>
       <c r="D9">
-        <v>1.012025771290121</v>
+        <v>1.027344228895634</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9629461997606559</v>
+        <v>1.018160937904734</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040693314030248</v>
+        <v>1.031842132285142</v>
       </c>
       <c r="J9">
-        <v>1.017483494641269</v>
+        <v>1.026860995573392</v>
       </c>
       <c r="K9">
-        <v>1.024926705973383</v>
+        <v>1.030535303885412</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9766704881496044</v>
+        <v>1.021382828666245</v>
       </c>
       <c r="N9">
-        <v>1.009888994923339</v>
+        <v>1.013036310991647</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9849940759460285</v>
+        <v>1.019732629087644</v>
       </c>
       <c r="D10">
-        <v>1.007136014648804</v>
+        <v>1.026414132234902</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9516924448177438</v>
+        <v>1.015947781958512</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038486944361132</v>
+        <v>1.031546573382374</v>
       </c>
       <c r="J10">
-        <v>1.013815976490446</v>
+        <v>1.026178795240223</v>
       </c>
       <c r="K10">
-        <v>1.02137761048568</v>
+        <v>1.029894333275141</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9669923491990939</v>
+        <v>1.019466588640938</v>
       </c>
       <c r="N10">
-        <v>1.008680113090471</v>
+        <v>1.012811408893734</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9820316613735658</v>
+        <v>1.019198484115299</v>
       </c>
       <c r="D11">
-        <v>1.004956359807109</v>
+        <v>1.026011135714611</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9466392748913258</v>
+        <v>1.014989260749221</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037487329365254</v>
+        <v>1.031416761340392</v>
       </c>
       <c r="J11">
-        <v>1.012171531577322</v>
+        <v>1.025882472954668</v>
       </c>
       <c r="K11">
-        <v>1.019785407851012</v>
+        <v>1.029615668995271</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9626428951673625</v>
+        <v>1.018636043144438</v>
       </c>
       <c r="N11">
-        <v>1.008138155663082</v>
+        <v>1.012713712657629</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9809172460718075</v>
+        <v>1.019000061637497</v>
       </c>
       <c r="D12">
-        <v>1.004136860438493</v>
+        <v>1.025861406968857</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9447330543034919</v>
+        <v>1.014633187279739</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037109082559808</v>
+        <v>1.031368268265105</v>
       </c>
       <c r="J12">
-        <v>1.0115517700541</v>
+        <v>1.02577226696949</v>
       </c>
       <c r="K12">
-        <v>1.019185231586423</v>
+        <v>1.029511992920068</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9610016261278855</v>
+        <v>1.018327417495245</v>
       </c>
       <c r="N12">
-        <v>1.007933915485051</v>
+        <v>1.012677377142</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9811569406739955</v>
+        <v>1.019042624704285</v>
       </c>
       <c r="D13">
-        <v>1.004313101528174</v>
+        <v>1.025893525992812</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9451433060277532</v>
+        <v>1.014709567949036</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037190537156832</v>
+        <v>1.031378682638618</v>
       </c>
       <c r="J13">
-        <v>1.011685123640709</v>
+        <v>1.025795912799171</v>
       </c>
       <c r="K13">
-        <v>1.019314375310071</v>
+        <v>1.029534239373735</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9613548779437189</v>
+        <v>1.018393624419399</v>
       </c>
       <c r="N13">
-        <v>1.007977861033919</v>
+        <v>1.012685173348722</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9819398346768583</v>
+        <v>1.019182082800097</v>
       </c>
       <c r="D14">
-        <v>1.004888824356316</v>
+        <v>1.025998759857382</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9464823161340541</v>
+        <v>1.014959828365643</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037456206868108</v>
+        <v>1.031412758497971</v>
       </c>
       <c r="J14">
-        <v>1.012120487169007</v>
+        <v>1.025873366121272</v>
       </c>
       <c r="K14">
-        <v>1.019735978474365</v>
+        <v>1.029607102517938</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9625077626886125</v>
+        <v>1.018610534604723</v>
       </c>
       <c r="N14">
-        <v>1.008121333874126</v>
+        <v>1.012710710106301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9824203162281141</v>
+        <v>1.019268005266251</v>
       </c>
       <c r="D15">
-        <v>1.005242221200132</v>
+        <v>1.026063592921222</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9473033799234529</v>
+        <v>1.015114017162272</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037618965051412</v>
+        <v>1.031433717314588</v>
       </c>
       <c r="J15">
-        <v>1.012387529395695</v>
+        <v>1.025921069299259</v>
       </c>
       <c r="K15">
-        <v>1.019994567474884</v>
+        <v>1.029651973691046</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9632146309219433</v>
+        <v>1.018744163575938</v>
       </c>
       <c r="N15">
-        <v>1.008209338754219</v>
+        <v>1.012726437949508</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9851887567423586</v>
+        <v>1.019768076080182</v>
       </c>
       <c r="D16">
-        <v>1.007279314806523</v>
+        <v>1.026440872420815</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9520238297261523</v>
+        <v>1.016011391048568</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038552328509964</v>
+        <v>1.031555149984518</v>
       </c>
       <c r="J16">
-        <v>1.013923885722911</v>
+        <v>1.026198441709108</v>
       </c>
       <c r="K16">
-        <v>1.021482075817252</v>
+        <v>1.029912803754332</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9672775108124569</v>
+        <v>1.019521692016603</v>
       </c>
       <c r="N16">
-        <v>1.008715678411476</v>
+        <v>1.01281788610431</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9869011633730093</v>
+        <v>1.020081725942992</v>
       </c>
       <c r="D17">
-        <v>1.008540088191074</v>
+        <v>1.026677461339093</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9549351291137224</v>
+        <v>1.016574230597981</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039125755316386</v>
+        <v>1.031630830931981</v>
       </c>
       <c r="J17">
-        <v>1.01487218648152</v>
+        <v>1.026372182635647</v>
       </c>
       <c r="K17">
-        <v>1.022400017511919</v>
+        <v>1.030076116106948</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9697823058491009</v>
+        <v>1.020009197999633</v>
       </c>
       <c r="N17">
-        <v>1.009028234091643</v>
+        <v>1.012875165626194</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9878915209142499</v>
+        <v>1.020264661123146</v>
       </c>
       <c r="D18">
-        <v>1.009269495996665</v>
+        <v>1.026815434645199</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9566160103992821</v>
+        <v>1.016902505414467</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039455978230119</v>
+        <v>1.031674797462171</v>
       </c>
       <c r="J18">
-        <v>1.015419907803335</v>
+        <v>1.026473433507174</v>
       </c>
       <c r="K18">
-        <v>1.022930121399257</v>
+        <v>1.030171265365293</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9712281264309469</v>
+        <v>1.020293474966158</v>
       </c>
       <c r="N18">
-        <v>1.009208768241125</v>
+        <v>1.012908545677474</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9882277949098753</v>
+        <v>1.020327035327973</v>
       </c>
       <c r="D19">
-        <v>1.009517205685409</v>
+        <v>1.026862475706444</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9571862872424804</v>
+        <v>1.017014435391409</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03956786393829</v>
+        <v>1.031689758900722</v>
       </c>
       <c r="J19">
-        <v>1.015605763191003</v>
+        <v>1.026507942287139</v>
       </c>
       <c r="K19">
-        <v>1.023109984034305</v>
+        <v>1.03020369045761</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9717185911634277</v>
+        <v>1.020390393114163</v>
       </c>
       <c r="N19">
-        <v>1.009270029198647</v>
+        <v>1.012919922299208</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9867183188736545</v>
+        <v>1.020048075464159</v>
       </c>
       <c r="D20">
-        <v>1.00840544122356</v>
+        <v>1.02665208016692</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9546245714410142</v>
+        <v>1.016513845338247</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03906467343141</v>
+        <v>1.031622729376513</v>
       </c>
       <c r="J20">
-        <v>1.014771005265708</v>
+        <v>1.026353551110147</v>
       </c>
       <c r="K20">
-        <v>1.022302083933039</v>
+        <v>1.030058605412142</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9695151482707443</v>
+        <v>1.019956901215049</v>
       </c>
       <c r="N20">
-        <v>1.008994884411322</v>
+        <v>1.01286902319069</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9817096861616167</v>
+        <v>1.019141016338543</v>
       </c>
       <c r="D21">
-        <v>1.004719565343872</v>
+        <v>1.025967772145679</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9460888370230154</v>
+        <v>1.014886133940531</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037378168014198</v>
+        <v>1.031402731598527</v>
       </c>
       <c r="J21">
-        <v>1.011992534278649</v>
+        <v>1.025850561874801</v>
       </c>
       <c r="K21">
-        <v>1.019612072393648</v>
+        <v>1.029585650765054</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9621689916975799</v>
+        <v>1.018546663416602</v>
       </c>
       <c r="N21">
-        <v>1.008079166964513</v>
+        <v>1.012703191458246</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9784788767470458</v>
+        <v>1.018570612722768</v>
       </c>
       <c r="D22">
-        <v>1.002344669327737</v>
+        <v>1.025537301746956</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9405516109962458</v>
+        <v>1.013862516598144</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036277443947344</v>
+        <v>1.031262818747493</v>
       </c>
       <c r="J22">
-        <v>1.010193601895838</v>
+        <v>1.025533510270142</v>
       </c>
       <c r="K22">
-        <v>1.017869820519592</v>
+        <v>1.029287315065761</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9574004930308286</v>
+        <v>1.017659271236473</v>
       </c>
       <c r="N22">
-        <v>1.007486363035766</v>
+        <v>1.012598655844716</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9801996113211985</v>
+        <v>1.018873003721227</v>
       </c>
       <c r="D23">
-        <v>1.003609273275195</v>
+        <v>1.025765522675054</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9435039450449271</v>
+        <v>1.014405176970968</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036864890220693</v>
+        <v>1.031337139955975</v>
       </c>
       <c r="J23">
-        <v>1.011152347135805</v>
+        <v>1.025701661281636</v>
       </c>
       <c r="K23">
-        <v>1.018798404870291</v>
+        <v>1.029445560283458</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9599432170992535</v>
+        <v>1.018129764094604</v>
       </c>
       <c r="N23">
-        <v>1.007802291164607</v>
+        <v>1.012654097766168</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.986800964520067</v>
+        <v>1.020063280702516</v>
       </c>
       <c r="D24">
-        <v>1.008466300835202</v>
+        <v>1.026663548903428</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9547649521718806</v>
+        <v>1.016541130898494</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039092286809294</v>
+        <v>1.031626390667237</v>
       </c>
       <c r="J24">
-        <v>1.01481674137496</v>
+        <v>1.026361970170326</v>
       </c>
       <c r="K24">
-        <v>1.022346352297929</v>
+        <v>1.030066518075306</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9696359120679237</v>
+        <v>1.019980532117977</v>
       </c>
       <c r="N24">
-        <v>1.009009959168207</v>
+        <v>1.012871798785965</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9941318380732099</v>
+        <v>1.021444078453059</v>
       </c>
       <c r="D25">
-        <v>1.013869491768705</v>
+        <v>1.027704673829624</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.967162728858369</v>
+        <v>1.019019018781167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041511293444735</v>
+        <v>1.031955109984357</v>
       </c>
       <c r="J25">
-        <v>1.018858316087775</v>
+        <v>1.02712471881111</v>
       </c>
       <c r="K25">
-        <v>1.026256250495143</v>
+        <v>1.03078286366448</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9802931289111259</v>
+        <v>1.022125236960042</v>
       </c>
       <c r="N25">
-        <v>1.01034222296833</v>
+        <v>1.013123246524867</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_210/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022545013070072</v>
+        <v>0.9997386297435958</v>
       </c>
       <c r="D2">
-        <v>1.028534243023331</v>
+        <v>1.018007698431032</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.020994917831002</v>
+        <v>0.976580040015823</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032211687326401</v>
+        <v>1.043316691313693</v>
       </c>
       <c r="J2">
-        <v>1.027730249084565</v>
+        <v>1.021927161162412</v>
       </c>
       <c r="K2">
-        <v>1.031350780310421</v>
+        <v>1.029221730929074</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.023833557202326</v>
+        <v>0.9883755908544662</v>
       </c>
       <c r="N2">
-        <v>1.01332284287209</v>
+        <v>1.011354019026326</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02334415576611</v>
+        <v>1.0036815778762</v>
       </c>
       <c r="D3">
-        <v>1.029136085777268</v>
+        <v>1.020920355969301</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.02242941244794</v>
+        <v>0.9831743595782082</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032394726607857</v>
+        <v>1.044559900929693</v>
       </c>
       <c r="J3">
-        <v>1.02816826774634</v>
+        <v>1.024072380049944</v>
       </c>
       <c r="K3">
-        <v>1.031761134877081</v>
+        <v>1.031292375558851</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.025072689561317</v>
+        <v>0.9940271527902836</v>
       </c>
       <c r="N3">
-        <v>1.013467209998588</v>
+        <v>1.012061378963445</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023861143223613</v>
+        <v>1.006177044341067</v>
       </c>
       <c r="D4">
-        <v>1.029525282048165</v>
+        <v>1.022764643629055</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.023357568558902</v>
+        <v>0.9873373891143979</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032511655339756</v>
+        <v>1.045334291114649</v>
       </c>
       <c r="J4">
-        <v>1.028450929776744</v>
+        <v>1.025424049746876</v>
       </c>
       <c r="K4">
-        <v>1.032025731677615</v>
+        <v>1.032595868877878</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.025873930793942</v>
+        <v>0.9975910820037778</v>
       </c>
       <c r="N4">
-        <v>1.013560366477664</v>
+        <v>1.012507106716769</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024078457364732</v>
+        <v>1.00721322807269</v>
       </c>
       <c r="D5">
-        <v>1.029688842548306</v>
+        <v>1.023530615018441</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.023747755107751</v>
+        <v>0.9890638393299617</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032560450303047</v>
+        <v>1.045652824796403</v>
       </c>
       <c r="J5">
-        <v>1.028569577245361</v>
+        <v>1.025983845029652</v>
       </c>
       <c r="K5">
-        <v>1.032136744911038</v>
+        <v>1.033135409868064</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.026210641441592</v>
+        <v>0.9990681066160376</v>
       </c>
       <c r="N5">
-        <v>1.013599467367713</v>
+        <v>1.012691711683642</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024114943737732</v>
+        <v>1.007386463943374</v>
       </c>
       <c r="D6">
-        <v>1.029716301666686</v>
+        <v>1.023658684204491</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.023813268646867</v>
+        <v>0.9893523621209241</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032568621959934</v>
+        <v>1.045705901210903</v>
       </c>
       <c r="J6">
-        <v>1.028589487895653</v>
+        <v>1.026077349489824</v>
       </c>
       <c r="K6">
-        <v>1.032155371411488</v>
+        <v>1.033225512940345</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.026267169035239</v>
+        <v>0.9993148876196577</v>
       </c>
       <c r="N6">
-        <v>1.013606028933334</v>
+        <v>1.012722547208433</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023864047094348</v>
+        <v>1.006190940006263</v>
       </c>
       <c r="D7">
-        <v>1.029527467779295</v>
+        <v>1.022774914992455</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.023362782286622</v>
+        <v>0.9873605495808812</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03251230876287</v>
+        <v>1.045338574737811</v>
       </c>
       <c r="J7">
-        <v>1.028452515872188</v>
+        <v>1.025431562596227</v>
       </c>
       <c r="K7">
-        <v>1.032027215919913</v>
+        <v>1.032603111117049</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.02587843044981</v>
+        <v>0.9976109002887713</v>
       </c>
       <c r="N7">
-        <v>1.01356088918986</v>
+        <v>1.012509584222309</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022815109689144</v>
+        <v>1.001083029465854</v>
       </c>
       <c r="D8">
-        <v>1.028737686880995</v>
+        <v>1.019000597644763</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.021479726123447</v>
+        <v>0.9788308878540726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032273858710341</v>
+        <v>1.043743169984497</v>
       </c>
       <c r="J8">
-        <v>1.027878437754653</v>
+        <v>1.022659861919988</v>
       </c>
       <c r="K8">
-        <v>1.031489653766051</v>
+        <v>1.029929200535569</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.024252445574596</v>
+        <v>0.9903054544581855</v>
       </c>
       <c r="N8">
-        <v>1.013371685889979</v>
+        <v>1.011595611036418</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020965927602569</v>
+        <v>0.9916317306023147</v>
       </c>
       <c r="D9">
-        <v>1.027344228895634</v>
+        <v>1.01202577129012</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.018160937904734</v>
+        <v>0.9629461997606544</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031842132285142</v>
+        <v>1.040693314030248</v>
       </c>
       <c r="J9">
-        <v>1.026860995573392</v>
+        <v>1.017483494641268</v>
       </c>
       <c r="K9">
-        <v>1.030535303885412</v>
+        <v>1.024926705973382</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.021382828666245</v>
+        <v>0.9766704881496031</v>
       </c>
       <c r="N9">
-        <v>1.013036310991647</v>
+        <v>1.009888994923339</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019732629087644</v>
+        <v>0.9849940759460285</v>
       </c>
       <c r="D10">
-        <v>1.026414132234902</v>
+        <v>1.007136014648804</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.015947781958512</v>
+        <v>0.9516924448177433</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031546573382374</v>
+        <v>1.038486944361132</v>
       </c>
       <c r="J10">
-        <v>1.026178795240223</v>
+        <v>1.013815976490446</v>
       </c>
       <c r="K10">
-        <v>1.029894333275141</v>
+        <v>1.02137761048568</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.019466588640938</v>
+        <v>0.9669923491990933</v>
       </c>
       <c r="N10">
-        <v>1.012811408893734</v>
+        <v>1.008680113090471</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019198484115299</v>
+        <v>0.9820316613735653</v>
       </c>
       <c r="D11">
-        <v>1.026011135714611</v>
+        <v>1.004956359807108</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.014989260749221</v>
+        <v>0.9466392748913259</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031416761340392</v>
+        <v>1.037487329365254</v>
       </c>
       <c r="J11">
-        <v>1.025882472954668</v>
+        <v>1.012171531577322</v>
       </c>
       <c r="K11">
-        <v>1.029615668995271</v>
+        <v>1.019785407851012</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.018636043144438</v>
+        <v>0.9626428951673626</v>
       </c>
       <c r="N11">
-        <v>1.012713712657629</v>
+        <v>1.008138155663082</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019000061637497</v>
+        <v>0.980917246071808</v>
       </c>
       <c r="D12">
-        <v>1.025861406968857</v>
+        <v>1.004136860438494</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.014633187279739</v>
+        <v>0.9447330543034926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031368268265105</v>
+        <v>1.037109082559809</v>
       </c>
       <c r="J12">
-        <v>1.02577226696949</v>
+        <v>1.0115517700541</v>
       </c>
       <c r="K12">
-        <v>1.029511992920068</v>
+        <v>1.019185231586423</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.018327417495245</v>
+        <v>0.9610016261278864</v>
       </c>
       <c r="N12">
-        <v>1.012677377142</v>
+        <v>1.007933915485051</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019042624704285</v>
+        <v>0.9811569406739948</v>
       </c>
       <c r="D13">
-        <v>1.025893525992812</v>
+        <v>1.004313101528173</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.014709567949036</v>
+        <v>0.9451433060277524</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031378682638618</v>
+        <v>1.037190537156832</v>
       </c>
       <c r="J13">
-        <v>1.025795912799171</v>
+        <v>1.011685123640709</v>
       </c>
       <c r="K13">
-        <v>1.029534239373735</v>
+        <v>1.01931437531007</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.018393624419399</v>
+        <v>0.9613548779437181</v>
       </c>
       <c r="N13">
-        <v>1.012685173348722</v>
+        <v>1.007977861033919</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019182082800097</v>
+        <v>0.9819398346768575</v>
       </c>
       <c r="D14">
-        <v>1.025998759857382</v>
+        <v>1.004888824356315</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.014959828365643</v>
+        <v>0.9464823161340535</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031412758497971</v>
+        <v>1.037456206868107</v>
       </c>
       <c r="J14">
-        <v>1.025873366121272</v>
+        <v>1.012120487169006</v>
       </c>
       <c r="K14">
-        <v>1.029607102517938</v>
+        <v>1.019735978474364</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.018610534604723</v>
+        <v>0.9625077626886118</v>
       </c>
       <c r="N14">
-        <v>1.012710710106301</v>
+        <v>1.008121333874126</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019268005266251</v>
+        <v>0.9824203162281137</v>
       </c>
       <c r="D15">
-        <v>1.026063592921222</v>
+        <v>1.005242221200132</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.015114017162272</v>
+        <v>0.9473033799234524</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031433717314588</v>
+        <v>1.037618965051412</v>
       </c>
       <c r="J15">
-        <v>1.025921069299259</v>
+        <v>1.012387529395694</v>
       </c>
       <c r="K15">
-        <v>1.029651973691046</v>
+        <v>1.019994567474884</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.018744163575938</v>
+        <v>0.9632146309219427</v>
       </c>
       <c r="N15">
-        <v>1.012726437949508</v>
+        <v>1.008209338754219</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019768076080182</v>
+        <v>0.9851887567423585</v>
       </c>
       <c r="D16">
-        <v>1.026440872420815</v>
+        <v>1.007279314806523</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.016011391048568</v>
+        <v>0.9520238297261523</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031555149984518</v>
+        <v>1.038552328509965</v>
       </c>
       <c r="J16">
-        <v>1.026198441709108</v>
+        <v>1.013923885722911</v>
       </c>
       <c r="K16">
-        <v>1.029912803754332</v>
+        <v>1.021482075817252</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.019521692016603</v>
+        <v>0.9672775108124569</v>
       </c>
       <c r="N16">
-        <v>1.01281788610431</v>
+        <v>1.008715678411476</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020081725942992</v>
+        <v>0.9869011633730084</v>
       </c>
       <c r="D17">
-        <v>1.026677461339093</v>
+        <v>1.008540088191074</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.016574230597981</v>
+        <v>0.9549351291137215</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031630830931981</v>
+        <v>1.039125755316386</v>
       </c>
       <c r="J17">
-        <v>1.026372182635647</v>
+        <v>1.014872186481519</v>
       </c>
       <c r="K17">
-        <v>1.030076116106948</v>
+        <v>1.022400017511918</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.020009197999633</v>
+        <v>0.9697823058490999</v>
       </c>
       <c r="N17">
-        <v>1.012875165626194</v>
+        <v>1.009028234091643</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020264661123146</v>
+        <v>0.9878915209142499</v>
       </c>
       <c r="D18">
-        <v>1.026815434645199</v>
+        <v>1.009269495996665</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.016902505414467</v>
+        <v>0.956616010399282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031674797462171</v>
+        <v>1.039455978230119</v>
       </c>
       <c r="J18">
-        <v>1.026473433507174</v>
+        <v>1.015419907803335</v>
       </c>
       <c r="K18">
-        <v>1.030171265365293</v>
+        <v>1.022930121399258</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.020293474966158</v>
+        <v>0.9712281264309469</v>
       </c>
       <c r="N18">
-        <v>1.012908545677474</v>
+        <v>1.009208768241125</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020327035327973</v>
+        <v>0.9882277949098756</v>
       </c>
       <c r="D19">
-        <v>1.026862475706444</v>
+        <v>1.009517205685409</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.017014435391409</v>
+        <v>0.9571862872424807</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031689758900722</v>
+        <v>1.03956786393829</v>
       </c>
       <c r="J19">
-        <v>1.026507942287139</v>
+        <v>1.015605763191003</v>
       </c>
       <c r="K19">
-        <v>1.03020369045761</v>
+        <v>1.023109984034305</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.020390393114163</v>
+        <v>0.971718591163428</v>
       </c>
       <c r="N19">
-        <v>1.012919922299208</v>
+        <v>1.009270029198647</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020048075464159</v>
+        <v>0.9867183188736546</v>
       </c>
       <c r="D20">
-        <v>1.02665208016692</v>
+        <v>1.00840544122356</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.016513845338247</v>
+        <v>0.954624571441014</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031622729376513</v>
+        <v>1.03906467343141</v>
       </c>
       <c r="J20">
-        <v>1.026353551110147</v>
+        <v>1.014771005265709</v>
       </c>
       <c r="K20">
-        <v>1.030058605412142</v>
+        <v>1.022302083933039</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.019956901215049</v>
+        <v>0.9695151482707441</v>
       </c>
       <c r="N20">
-        <v>1.01286902319069</v>
+        <v>1.008994884411322</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019141016338543</v>
+        <v>0.981709686161616</v>
       </c>
       <c r="D21">
-        <v>1.025967772145679</v>
+        <v>1.004719565343871</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.014886133940531</v>
+        <v>0.9460888370230152</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031402731598527</v>
+        <v>1.037378168014198</v>
       </c>
       <c r="J21">
-        <v>1.025850561874801</v>
+        <v>1.011992534278648</v>
       </c>
       <c r="K21">
-        <v>1.029585650765054</v>
+        <v>1.019612072393647</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.018546663416602</v>
+        <v>0.9621689916975797</v>
       </c>
       <c r="N21">
-        <v>1.012703191458246</v>
+        <v>1.008079166964513</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018570612722768</v>
+        <v>0.9784788767470448</v>
       </c>
       <c r="D22">
-        <v>1.025537301746956</v>
+        <v>1.002344669327736</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.013862516598144</v>
+        <v>0.9405516109962448</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031262818747493</v>
+        <v>1.036277443947343</v>
       </c>
       <c r="J22">
-        <v>1.025533510270142</v>
+        <v>1.010193601895837</v>
       </c>
       <c r="K22">
-        <v>1.029287315065761</v>
+        <v>1.01786982051959</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.017659271236473</v>
+        <v>0.9574004930308275</v>
       </c>
       <c r="N22">
-        <v>1.012598655844716</v>
+        <v>1.007486363035766</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018873003721227</v>
+        <v>0.980199611321198</v>
       </c>
       <c r="D23">
-        <v>1.025765522675054</v>
+        <v>1.003609273275195</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.014405176970968</v>
+        <v>0.9435039450449261</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031337139955975</v>
+        <v>1.036864890220693</v>
       </c>
       <c r="J23">
-        <v>1.025701661281636</v>
+        <v>1.011152347135804</v>
       </c>
       <c r="K23">
-        <v>1.029445560283458</v>
+        <v>1.01879840487029</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.018129764094604</v>
+        <v>0.9599432170992527</v>
       </c>
       <c r="N23">
-        <v>1.012654097766168</v>
+        <v>1.007802291164607</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020063280702516</v>
+        <v>0.9868009645200673</v>
       </c>
       <c r="D24">
-        <v>1.026663548903428</v>
+        <v>1.008466300835202</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.016541130898494</v>
+        <v>0.9547649521718808</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031626390667237</v>
+        <v>1.039092286809294</v>
       </c>
       <c r="J24">
-        <v>1.026361970170326</v>
+        <v>1.01481674137496</v>
       </c>
       <c r="K24">
-        <v>1.030066518075306</v>
+        <v>1.022346352297929</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.019980532117977</v>
+        <v>0.9696359120679239</v>
       </c>
       <c r="N24">
-        <v>1.012871798785965</v>
+        <v>1.009009959168207</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021444078453059</v>
+        <v>0.9941318380732098</v>
       </c>
       <c r="D25">
-        <v>1.027704673829624</v>
+        <v>1.013869491768705</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.019019018781167</v>
+        <v>0.9671627288583688</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031955109984357</v>
+        <v>1.041511293444735</v>
       </c>
       <c r="J25">
-        <v>1.02712471881111</v>
+        <v>1.018858316087775</v>
       </c>
       <c r="K25">
-        <v>1.03078286366448</v>
+        <v>1.026256250495143</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.022125236960042</v>
+        <v>0.9802931289111259</v>
       </c>
       <c r="N25">
-        <v>1.013123246524867</v>
+        <v>1.01034222296833</v>
       </c>
     </row>
   </sheetData>
